--- a/sample_data/data_dec11/Optimized_Bundles.xlsx
+++ b/sample_data/data_dec11/Optimized_Bundles.xlsx
@@ -138,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:AF169" headerRowCount="1">
-  <autoFilter ref="A1:AF169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:AF171" headerRowCount="1">
+  <autoFilter ref="A1:AF171"/>
   <tableColumns count="32">
     <tableColumn id="1" name="OrderType"/>
     <tableColumn id="2" name="OrderNbr"/>
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF169"/>
+  <dimension ref="A1:AF171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2844</v>
+        <v>2838</v>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -5197,19 +5197,19 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L44" t="n">
         <v>550</v>
       </c>
       <c r="M44" t="n">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="N44" t="n">
         <v>7340</v>
       </c>
       <c r="O44" t="n">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="48" outlineLevel="2" s="9">
+    <row r="48" outlineLevel="3" s="9">
       <c r="A48" t="inlineStr">
         <is>
           <t>SO</t>
@@ -5643,38 +5643,34 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2FR.145.15BEE_Partial</t>
+          <t>Pack_Angle_7340</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L48" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>3680</v>
+        <v>7320</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>1-1/2" Flat Reveal - 2FRS - Component 2 12 feet (Premium Beechwood)</t>
+          <t>PRINTED ANGLEBOARD</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -5734,11 +5730,11 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="49" outlineLevel="2" s="9">
+    <row r="49" outlineLevel="3" s="9">
       <c r="A49" t="inlineStr">
         <is>
           <t>SO</t>
@@ -5759,38 +5755,34 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2TB.145.15LCY_Partial</t>
+          <t>Pack_1x4x19_Dun_7340</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M49" t="n">
         <v>19</v>
       </c>
       <c r="N49" t="n">
-        <v>3680</v>
+        <v>965</v>
       </c>
       <c r="O49" t="n">
-        <v>4</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Light Cherry)</t>
+          <t>1" X 4" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5850,7 +5842,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5875,34 +5867,34 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pack_Angle_7340</t>
+          <t>Pack_2x3x19_Dun_7340</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="N50" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O50" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD</t>
+          <t>2" X 3" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5962,7 +5954,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5979,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun_7340</t>
+          <t>Pack_Sub_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -6000,21 +5992,21 @@
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="M51" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>965</v>
+        <v>7320</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -6074,7 +6066,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -6099,7 +6091,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_7340</t>
+          <t>Pack_Mst_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -6112,21 +6104,21 @@
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>64</v>
+        <v>483</v>
       </c>
       <c r="M52" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
-        <v>965</v>
+        <v>7320</v>
       </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE</t>
+          <t>Master Bundle - Stretch Wrap</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -6186,11 +6178,11 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="53" outlineLevel="3" s="9">
+    <row r="53" outlineLevel="2" s="9">
       <c r="A53" t="inlineStr">
         <is>
           <t>SO</t>
@@ -6211,17 +6203,17 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bndl_Wrp_7340</t>
+          <t>Pack_Pad_19_7340</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L53" t="n">
         <v>483</v>
@@ -6238,7 +6230,7 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -6298,11 +6290,11 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="54" outlineLevel="3" s="9">
+    <row r="54" outlineLevel="1" s="9">
       <c r="A54" t="inlineStr">
         <is>
           <t>SO</t>
@@ -6311,9 +6303,12 @@
       <c r="B54" t="n">
         <v>1015352</v>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2_ALL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -6323,34 +6318,36 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bndl_Wrp_7340</t>
+          <t>Total_Bundle_2</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="L54" t="n">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>454</v>
       </c>
       <c r="N54" t="n">
-        <v>7320</v>
+        <v>7340</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>1032</v>
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap</t>
+          <t>Bundle 2 Summary</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -6410,7 +6407,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6421,7 @@
         <v>1015352</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6435,34 +6432,38 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_7340</t>
+          <t>6VR.289.15LCY</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="L55" t="n">
-        <v>483</v>
+        <v>51</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="N55" t="n">
-        <v>7320</v>
+        <v>7341</v>
       </c>
       <c r="O55" t="n">
-        <v>5</v>
-      </c>
-      <c r="P55" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>BOX8</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+          <t>6" V-Groove - Rib 24 feet (Premium Light Cherry) Box of 8</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6522,11 +6523,11 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="56" outlineLevel="1" s="9">
+    <row r="56" outlineLevel="2" s="9">
       <c r="A56" t="inlineStr">
         <is>
           <t>SO</t>
@@ -6535,12 +6536,9 @@
       <c r="B56" t="n">
         <v>1015352</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2_ALL</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -6550,36 +6548,38 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Total_Bundle_2</t>
+          <t>6VP.145.15LCY</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>32</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8</v>
       </c>
       <c r="K56" t="n">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="L56" t="n">
-        <v>550</v>
+        <v>178</v>
       </c>
       <c r="M56" t="n">
-        <v>454</v>
+        <v>51</v>
       </c>
       <c r="N56" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="O56" t="n">
-        <v>1032</v>
-      </c>
-      <c r="P56" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>BOX8</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Bundle 2 Summary</t>
+          <t>6" V-Groove Perforated 12 feet (Premium Light Cherry) Box of 8</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -6664,38 +6664,34 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6VR.289.15LCY</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="M57" t="n">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="N57" t="n">
-        <v>7341</v>
+        <v>3660</v>
       </c>
       <c r="O57" t="n">
-        <v>51</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>6" V-Groove - Rib 24 feet (Premium Light Cherry) Box of 8</t>
+          <t>6"x2" FILLER BOX</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6755,7 +6751,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -6780,38 +6776,38 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6VP.145.15LCY</t>
+          <t>TGBJKIT</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="M58" t="n">
         <v>51</v>
       </c>
       <c r="N58" t="n">
-        <v>3680</v>
+        <v>178</v>
       </c>
       <c r="O58" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>BOX8</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>6" V-Groove Perforated 12 feet (Premium Light Cherry) Box of 8</t>
+          <t>Tongue &amp; Groove Butt-Joint Fastening Kit</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -6871,11 +6867,11 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="59" outlineLevel="2" s="9">
+    <row r="59" outlineLevel="3" s="9">
       <c r="A59" t="inlineStr">
         <is>
           <t>SO</t>
@@ -6896,34 +6892,34 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>Pack_Angle_7340</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M59" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N59" t="n">
-        <v>3660</v>
+        <v>7320</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>6"x2" FILLER BOX</t>
+          <t>PRINTED ANGLEBOARD</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -6983,11 +6979,11 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="60" outlineLevel="2" s="9">
+    <row r="60" outlineLevel="3" s="9">
       <c r="A60" t="inlineStr">
         <is>
           <t>SO</t>
@@ -7008,38 +7004,34 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>TGBJKIT</t>
+          <t>Pack_1x4x19_Dun_7340</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="M60" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N60" t="n">
-        <v>178</v>
+        <v>965</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Tongue &amp; Groove Butt-Joint Fastening Kit</t>
+          <t>1" X 4" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -7099,7 +7091,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -7124,34 +7116,34 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pack_Angle_7340</t>
+          <t>Pack_2x3x19_Dun_7340</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L61" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="N61" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O61" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD</t>
+          <t>2" X 3" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -7211,7 +7203,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7228,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun_7340</t>
+          <t>Pack_Sub_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -7249,21 +7241,21 @@
         <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="M62" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>965</v>
+        <v>7320</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -7323,7 +7315,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7340,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_7340</t>
+          <t>Pack_Mst_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -7361,21 +7353,21 @@
         <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>64</v>
+        <v>483</v>
       </c>
       <c r="M63" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>965</v>
+        <v>7320</v>
       </c>
       <c r="O63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE</t>
+          <t>Master Bundle - Stretch Wrap</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -7435,11 +7427,11 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="64" outlineLevel="3" s="9">
+    <row r="64" outlineLevel="2" s="9">
       <c r="A64" t="inlineStr">
         <is>
           <t>SO</t>
@@ -7460,17 +7452,17 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bndl_Wrp_7340</t>
+          <t>Pack_Pad_19_7340</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L64" t="n">
         <v>483</v>
@@ -7487,7 +7479,7 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -7547,11 +7539,11 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="65" outlineLevel="3" s="9">
+    <row r="65" outlineLevel="1" s="9">
       <c r="A65" t="inlineStr">
         <is>
           <t>SO</t>
@@ -7560,9 +7552,12 @@
       <c r="B65" t="n">
         <v>1015352</v>
       </c>
-      <c r="C65" t="n">
-        <v>2</v>
-      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3_ALL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -7572,34 +7567,36 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bndl_Wrp_7340</t>
+          <t>Total_Bundle_3</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>328</v>
       </c>
       <c r="L65" t="n">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>381</v>
       </c>
       <c r="N65" t="n">
-        <v>7320</v>
+        <v>7340</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>776</v>
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap</t>
+          <t>Bundle 3 Summary</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -7659,7 +7656,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -7673,7 +7670,7 @@
         <v>1015352</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7684,34 +7681,38 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_7340</t>
+          <t>6VR.289.15BEE</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K66" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="L66" t="n">
-        <v>483</v>
+        <v>51</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="N66" t="n">
-        <v>7320</v>
+        <v>7341</v>
       </c>
       <c r="O66" t="n">
-        <v>5</v>
-      </c>
-      <c r="P66" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>BOX8</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+          <t>6" V-Groove - Rib 24 feet (Premium Beechwood) Box of 8</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -7771,11 +7772,11 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="67" outlineLevel="1" s="9">
+    <row r="67" outlineLevel="2" s="9">
       <c r="A67" t="inlineStr">
         <is>
           <t>SO</t>
@@ -7784,12 +7785,9 @@
       <c r="B67" t="n">
         <v>1015352</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>3_ALL</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -7799,36 +7797,38 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Total_Bundle_3</t>
+          <t>6VP.145.15LCY</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>52</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8</v>
       </c>
       <c r="K67" t="n">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="L67" t="n">
-        <v>524</v>
+        <v>51</v>
       </c>
       <c r="M67" t="n">
-        <v>415</v>
+        <v>178</v>
       </c>
       <c r="N67" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="O67" t="n">
-        <v>776</v>
-      </c>
-      <c r="P67" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>BOX8</t>
+        </is>
+      </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Bundle 3 Summary</t>
+          <t>6" V-Groove Perforated 12 feet (Premium Light Cherry) Box of 8</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -7913,38 +7913,38 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6VR.289.15BEE</t>
+          <t>2TB.145.15LCY_Partial</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="L68" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M68" t="n">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="N68" t="n">
-        <v>7341</v>
+        <v>3680</v>
       </c>
       <c r="O68" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>BOX8</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>6" V-Groove - Rib 24 feet (Premium Beechwood) Box of 8</t>
+          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Light Cherry)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8029,38 +8029,38 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>6VP.145.15LCY</t>
+          <t>2FR.145.15BEE_Partial</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
         <v>8</v>
       </c>
-      <c r="K69" t="n">
-        <v>56</v>
-      </c>
-      <c r="L69" t="n">
-        <v>51</v>
-      </c>
       <c r="M69" t="n">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="N69" t="n">
         <v>3680</v>
       </c>
       <c r="O69" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>BOX8</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>6" V-Groove Perforated 12 feet (Premium Light Cherry) Box of 8</t>
+          <t>1-1/2" Flat Reveal - 2FRS - Component 2 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8261,34 +8261,38 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>1OC.145.15LCY</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="M71" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N71" t="n">
-        <v>3660</v>
+        <v>3680</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
-      </c>
-      <c r="P71" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>6"x2" FILLER BOX</t>
+          <t>1" Outside Corner 12 feet (Premium Light Cherry)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -8348,7 +8352,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8373,29 +8377,29 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2SS.145.15BEE</t>
+          <t>1OC.145.15BEE</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L72" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="M72" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="N72" t="n">
         <v>3680</v>
       </c>
       <c r="O72" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -8404,7 +8408,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Beechwood)</t>
+          <t>1" Outside Corner 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -8464,7 +8468,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8489,29 +8493,29 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1OC.145.15LCY</t>
+          <t>JT23.145.15LCY</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K73" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L73" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M73" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N73" t="n">
         <v>3680</v>
       </c>
       <c r="O73" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -8520,7 +8524,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>1" Outside Corner 12 feet (Premium Light Cherry)</t>
+          <t>7/8" J-Track 12 feet (Premium Light Cherry)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -8580,7 +8584,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8605,29 +8609,29 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1OC.145.15BEE</t>
+          <t>JT23.145.15BEE</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K74" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L74" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M74" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N74" t="n">
         <v>3680</v>
       </c>
       <c r="O74" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -8636,7 +8640,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>1" Outside Corner 12 feet (Premium Beechwood)</t>
+          <t>7/8" J-Track 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -8696,7 +8700,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8725,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>JT23.145.15LCY</t>
+          <t>2TB.145.15BEE</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -8743,7 +8747,7 @@
         <v>3680</v>
       </c>
       <c r="O75" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -8752,7 +8756,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>7/8" J-Track 12 feet (Premium Light Cherry)</t>
+          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -8812,7 +8816,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8837,29 +8841,29 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>JT23.145.15BEE</t>
+          <t>2SS.145.15LCY_Partial</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M76" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N76" t="n">
         <v>3680</v>
       </c>
       <c r="O76" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -8868,7 +8872,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>7/8" J-Track 12 feet (Premium Beechwood)</t>
+          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Light Cherry)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -8928,7 +8932,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -8953,29 +8957,29 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2TB.145.15BEE</t>
+          <t>2BTBSS.145.15OBL_Partial</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M77" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N77" t="n">
         <v>3680</v>
       </c>
       <c r="O77" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -8984,7 +8988,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Beechwood)</t>
+          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -9044,7 +9048,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9069,29 +9073,29 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2TJT.145.15BEE</t>
+          <t>JT23.145.15LCY_Partial</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M78" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N78" t="n">
         <v>3680</v>
       </c>
       <c r="O78" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -9100,7 +9104,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Beechwood)</t>
+          <t>7/8" J-Track 12 feet (Premium Light Cherry)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -9160,7 +9164,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9185,29 +9189,29 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1OC.145.15LCY_Partial</t>
+          <t>2TB.145.15BEE_Partial</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M79" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="N79" t="n">
         <v>3680</v>
       </c>
       <c r="O79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -9216,7 +9220,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>1" Outside Corner 12 feet (Premium Light Cherry)</t>
+          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -9276,7 +9280,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9301,23 +9305,23 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1OC.145.15BEE_Partial</t>
+          <t>JT23.145.15BEE_Partial</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M80" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="N80" t="n">
         <v>3680</v>
@@ -9332,7 +9336,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>1" Outside Corner 12 feet (Premium Beechwood)</t>
+          <t>7/8" J-Track 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -9392,7 +9396,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9417,29 +9421,29 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>JT23.145.15LCY_Partial</t>
+          <t>2BA.145.15OBL_Partial</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
+        <v>10</v>
+      </c>
+      <c r="M81" t="n">
         <v>76</v>
-      </c>
-      <c r="M81" t="n">
-        <v>15</v>
       </c>
       <c r="N81" t="n">
         <v>3680</v>
       </c>
       <c r="O81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -9448,7 +9452,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>7/8" J-Track 12 feet (Premium Light Cherry)</t>
+          <t>1/2" Base - 2FRS / 2URS - Component 1 12 feet (Premium Onyx Black)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -9508,7 +9512,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9533,7 +9537,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2SS.145.15LCY_Partial</t>
+          <t>2TJT.145.15LCY_Partial</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -9546,16 +9550,16 @@
         <v>5</v>
       </c>
       <c r="L82" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="M82" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N82" t="n">
         <v>3680</v>
       </c>
       <c r="O82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -9564,7 +9568,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Light Cherry)</t>
+          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Light Cherry)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -9624,7 +9628,7 @@
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9649,29 +9653,29 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL_Partial</t>
+          <t>2TJT.145.15BEE_Partial</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="M83" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N83" t="n">
         <v>3680</v>
       </c>
       <c r="O83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -9680,7 +9684,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
+          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -9740,7 +9744,7 @@
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9765,29 +9769,29 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>JT23.145.15BEE_Partial</t>
+          <t>2SS.145.15BEE</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="M84" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N84" t="n">
         <v>3680</v>
       </c>
       <c r="O84" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -9796,7 +9800,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>7/8" J-Track 12 feet (Premium Beechwood)</t>
+          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -9856,7 +9860,7 @@
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9881,29 +9885,29 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2TB.145.15BEE_Partial</t>
+          <t>2TJT.145.15BEE</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L85" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="M85" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N85" t="n">
         <v>3680</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -9912,7 +9916,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Beechwood)</t>
+          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -9972,7 +9976,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -9997,7 +10001,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL_Partial</t>
+          <t>1OC.145.15LCY_Partial</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -10010,16 +10014,16 @@
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="M86" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N86" t="n">
         <v>3680</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -10028,7 +10032,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>1/2" Base - 2FRS / 2URS - Component 1 12 feet (Premium Onyx Black)</t>
+          <t>1" Outside Corner 12 feet (Premium Light Cherry)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -10088,7 +10092,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -10113,29 +10117,29 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2TJT.145.15LCY_Partial</t>
+          <t>1OC.145.15BEE_Partial</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
         <v>64</v>
       </c>
       <c r="M87" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N87" t="n">
         <v>3680</v>
       </c>
       <c r="O87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -10144,7 +10148,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Light Cherry)</t>
+          <t>1" Outside Corner 12 feet (Premium Beechwood)</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -10204,7 +10208,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -10229,38 +10233,34 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2TJT.145.15BEE_Partial</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="M88" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="N88" t="n">
-        <v>3680</v>
+        <v>3660</v>
       </c>
       <c r="O88" t="n">
         <v>2</v>
       </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
+      <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Beechwood)</t>
+          <t>6"x2" FILLER BOX</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10432,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -10880,11 +10880,11 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="94" outlineLevel="2" s="9">
+    <row r="94" outlineLevel="3" s="9">
       <c r="A94" t="inlineStr">
         <is>
           <t>SO</t>
@@ -10909,13 +10909,13 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
         <v>483</v>
@@ -10992,131 +10992,124 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="95" s="9"/>
-    <row r="96" s="9">
-      <c r="A96" t="inlineStr">
+    <row r="95" outlineLevel="2" s="9">
+      <c r="A95" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>1014265</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Total_Order</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>21</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K96" t="n">
-        <v>150</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O96" t="n">
-        <v>446</v>
-      </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>Total Order Summary</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Nathan Benderson Park Conservancy, Inc</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>5851 Nathan Benderson Circle</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>Sarasota</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
+      <c r="B95" t="n">
+        <v>1015352</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>MACH5</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Pack_Pad_13_7340</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>4</v>
+      </c>
+      <c r="L95" t="n">
+        <v>330</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>7320</v>
+      </c>
+      <c r="O95" t="n">
+        <v>4</v>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>PAD - 13" X 144" DW ECT #3 WHITE</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Distribution Materiaux Lavoie</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>920 rue Vernon</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Gatineau</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>2025-08-25</t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="AA96" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="AD96" t="inlineStr">
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr">
         <is>
           <t>COMMONCARRIER</t>
         </is>
       </c>
-      <c r="AE96" t="inlineStr">
-        <is>
-          <t>2025-10-29</t>
-        </is>
-      </c>
-      <c r="AF96" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="97" outlineLevel="1" s="9">
+    <row r="96" s="9"/>
+    <row r="97" s="9">
       <c r="A97" t="inlineStr">
         <is>
           <t>SO</t>
@@ -11127,20 +11120,16 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1_ALL</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>MACH1</t>
-        </is>
-      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Total_Bundle_1</t>
+          <t>Total_Order</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -11154,14 +11143,20 @@
       <c r="K97" t="n">
         <v>150</v>
       </c>
-      <c r="L97" t="n">
-        <v>423</v>
-      </c>
-      <c r="M97" t="n">
-        <v>296</v>
-      </c>
-      <c r="N97" t="n">
-        <v>7340</v>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="O97" t="n">
         <v>446</v>
@@ -11169,7 +11164,7 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Bundle 1 Summary</t>
+          <t>Total Order Summary</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -11229,11 +11224,11 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="98" outlineLevel="2" s="9">
+    <row r="98" outlineLevel="1" s="9">
       <c r="A98" t="inlineStr">
         <is>
           <t>SO</t>
@@ -11242,50 +11237,51 @@
       <c r="B98" t="n">
         <v>1014265</v>
       </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1_ALL</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>6CH.289.15UWH</t>
+          <t>Total_Bundle_1</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K98" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="L98" t="n">
-        <v>51</v>
+        <v>423</v>
       </c>
       <c r="M98" t="n">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="N98" t="n">
-        <v>7341</v>
+        <v>7340</v>
       </c>
       <c r="O98" t="n">
-        <v>48</v>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>6" Channel 24 feet (Premium Ultra White) Box of 8</t>
+          <t>Bundle 1 Summary</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -11345,7 +11341,7 @@
       </c>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -11363,45 +11359,45 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2TB.145.15UWH</t>
+          <t>6CH.289.15UWH</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L99" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M99" t="n">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="N99" t="n">
-        <v>3680</v>
+        <v>7341</v>
       </c>
       <c r="O99" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Ultra White)</t>
+          <t>6" Channel 24 feet (Premium Ultra White) Box of 8</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -11461,7 +11457,7 @@
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -11479,36 +11475,36 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1TJT.145.15UWH_Partial</t>
+          <t>1JTC.145.15UWH_Partial</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K100" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L100" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M100" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N100" t="n">
         <v>3680</v>
       </c>
       <c r="O100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -11517,7 +11513,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Ultra White)</t>
+          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Ultra White)</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -11577,7 +11573,7 @@
       </c>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11591,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -11693,7 +11689,7 @@
       </c>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -11711,36 +11707,36 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1SJT.145.15UWH_Partial</t>
+          <t>2TB.145.15UWH</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L102" t="n">
         <v>76</v>
       </c>
       <c r="M102" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N102" t="n">
         <v>3680</v>
       </c>
       <c r="O102" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -11749,7 +11745,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>5/8" Starter J-Track 12 feet (Premium Ultra White)</t>
+          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Ultra White)</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -11809,7 +11805,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -11827,36 +11823,36 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2TB.145.15UWH_Partial</t>
+          <t>1TJT.145.15UWH_Partial</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L103" t="n">
         <v>76</v>
       </c>
       <c r="M103" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N103" t="n">
         <v>3680</v>
       </c>
       <c r="O103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -11865,7 +11861,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Ultra White)</t>
+          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Ultra White)</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -11925,7 +11921,7 @@
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -11943,27 +11939,27 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1JTC.145.15UWH_Partial</t>
+          <t>1SJT.145.15UWH_Partial</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L104" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M104" t="n">
         <v>13</v>
@@ -11972,7 +11968,7 @@
         <v>3680</v>
       </c>
       <c r="O104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -11981,7 +11977,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Ultra White)</t>
+          <t>5/8" Starter J-Track 12 feet (Premium Ultra White)</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -12041,11 +12037,11 @@
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="105" outlineLevel="3" s="9">
+    <row r="105" outlineLevel="2" s="9">
       <c r="A105" t="inlineStr">
         <is>
           <t>SO</t>
@@ -12059,41 +12055,45 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Pack_Angle_7340</t>
+          <t>2TB.145.15UWH_Partial</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>1</v>
       </c>
       <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>76</v>
+      </c>
+      <c r="M105" t="n">
         <v>8</v>
       </c>
-      <c r="K105" t="n">
-        <v>8</v>
-      </c>
-      <c r="L105" t="n">
-        <v>75</v>
-      </c>
-      <c r="M105" t="n">
-        <v>5</v>
-      </c>
       <c r="N105" t="n">
-        <v>7320</v>
+        <v>3680</v>
       </c>
       <c r="O105" t="n">
-        <v>11</v>
-      </c>
-      <c r="P105" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD</t>
+          <t>1-1/2" Base - 1TS / 2TS / TS23S - Component 2 12 feet (Premium Ultra White)</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -12153,7 +12153,7 @@
       </c>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -12171,41 +12171,41 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun_7340</t>
+          <t>Pack_Angle_7340</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K106" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L106" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M106" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N106" t="n">
-        <v>965</v>
+        <v>7320</v>
       </c>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE</t>
+          <t>PRINTED ANGLEBOARD</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -12283,14 +12283,14 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_7340</t>
+          <t>Pack_1x4x19_Dun_7340</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -12303,21 +12303,21 @@
         <v>4</v>
       </c>
       <c r="L107" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M107" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N107" t="n">
         <v>965</v>
       </c>
       <c r="O107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE</t>
+          <t>1" X 4" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -12395,14 +12395,14 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bndl_Wrp_7340</t>
+          <t>Pack_2x3x19_Dun_7340</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -12415,21 +12415,21 @@
         <v>4</v>
       </c>
       <c r="L108" t="n">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="M108" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N108" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
+          <t>2" X 3" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -12507,14 +12507,14 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bndl_Wrp_7340</t>
+          <t>Pack_Sub_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -12536,12 +12536,12 @@
         <v>7320</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -12619,14 +12619,14 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_7340</t>
+          <t>Pack_Mst_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -12648,12 +12648,12 @@
         <v>7320</v>
       </c>
       <c r="O110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+          <t>Master Bundle - Stretch Wrap</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -12713,11 +12713,11 @@
       </c>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="111" outlineLevel="2" s="9">
+    <row r="111" outlineLevel="3" s="9">
       <c r="A111" t="inlineStr">
         <is>
           <t>SO</t>
@@ -12731,14 +12731,14 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MACH1</t>
+          <t>MIXED</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Pack_Pad_10_7340</t>
+          <t>Pack_Pad_19_7340</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -12751,7 +12751,7 @@
         <v>4</v>
       </c>
       <c r="L111" t="n">
-        <v>254</v>
+        <v>483</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
@@ -12760,196 +12760,189 @@
         <v>7320</v>
       </c>
       <c r="O111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr">
         <is>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Nathan Benderson Park Conservancy, Inc</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>5851 Nathan Benderson Circle</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Sarasota</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>COMMONCARRIER</t>
+        </is>
+      </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" outlineLevel="2" s="9">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1014265</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>MIXED</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Pack_Pad_10_7340</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4</v>
+      </c>
+      <c r="L112" t="n">
+        <v>254</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>7320</v>
+      </c>
+      <c r="O112" t="n">
+        <v>4</v>
+      </c>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
+        <is>
           <t>PAD - 10" X 144" DW ECT #3 WHITE</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr">
+      <c r="R112" t="inlineStr">
         <is>
           <t>Nathan Benderson Park Conservancy, Inc</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="S112" t="inlineStr">
         <is>
           <t>5851 Nathan Benderson Circle</t>
         </is>
       </c>
-      <c r="U111" t="inlineStr">
+      <c r="U112" t="inlineStr">
         <is>
           <t>Sarasota</t>
         </is>
       </c>
-      <c r="V111" t="inlineStr">
+      <c r="V112" t="inlineStr">
         <is>
           <t>FL</t>
         </is>
       </c>
-      <c r="W111" t="inlineStr">
+      <c r="W112" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="X111" t="inlineStr">
+      <c r="X112" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="Y111" t="inlineStr">
+      <c r="Y112" t="inlineStr">
         <is>
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
+      <c r="Z112" t="inlineStr">
         <is>
           <t>2025-10-27</t>
         </is>
       </c>
-      <c r="AA111" t="inlineStr">
+      <c r="AA112" t="inlineStr">
         <is>
           <t>2025-10-27</t>
         </is>
       </c>
-      <c r="AD111" t="inlineStr">
+      <c r="AD112" t="inlineStr">
         <is>
           <t>COMMONCARRIER</t>
         </is>
       </c>
-      <c r="AE111" t="inlineStr">
+      <c r="AE112" t="inlineStr">
         <is>
           <t>2025-10-29</t>
         </is>
       </c>
-      <c r="AF111" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="112" s="9"/>
-    <row r="113" s="9">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1015008</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Total_Order</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>56</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K113" t="n">
-        <v>320</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O113" t="n">
-        <v>719</v>
-      </c>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>Total Order Summary</t>
-        </is>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>Rodsal Builders</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>52378 Cesar Chavez Street</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>Coachella</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>2025-10-17</t>
-        </is>
-      </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="AA113" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="AD113" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AE113" t="inlineStr">
-        <is>
-          <t>2025-10-31</t>
-        </is>
-      </c>
-      <c r="AF113" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="114" outlineLevel="1" s="9">
+    <row r="113" s="9"/>
+    <row r="114" s="9">
       <c r="A114" t="inlineStr">
         <is>
           <t>SO</t>
@@ -12960,7 +12953,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0_ALL</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -12969,46 +12962,42 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Missing_SKUs</t>
+          <t>Total_Order</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K114" t="n">
+        <v>320</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="N114" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="O114" t="n">
+        <v>719</v>
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>Missing SKUs Summary</t>
+          <t>Total Order Summary</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -13068,11 +13057,11 @@
       </c>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="115" outlineLevel="2" s="9">
+    <row r="115" outlineLevel="1" s="9">
       <c r="A115" t="inlineStr">
         <is>
           <t>SO</t>
@@ -13081,15 +13070,18 @@
       <c r="B115" t="n">
         <v>1015008</v>
       </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0_ALL</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>TUP.71200</t>
+          <t>Missing_SKUs</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -13125,14 +13117,10 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
+      <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>Touch Up Pen for Light National Walnut Finish</t>
+          <t>Missing SKUs Summary</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -13192,11 +13180,11 @@
       </c>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="116" outlineLevel="1" s="9">
+    <row r="116" outlineLevel="2" s="9">
       <c r="A116" t="inlineStr">
         <is>
           <t>SO</t>
@@ -13205,51 +13193,58 @@
       <c r="B116" t="n">
         <v>1015008</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>1_ALL</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>MACH5</t>
-        </is>
-      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Total_Bundle_1</t>
+          <t>TUP.71200</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K116" t="n">
-        <v>128</v>
-      </c>
-      <c r="L116" t="n">
-        <v>524</v>
-      </c>
-      <c r="M116" t="n">
-        <v>581</v>
-      </c>
-      <c r="N116" t="n">
-        <v>7340</v>
-      </c>
-      <c r="O116" t="n">
-        <v>650</v>
-      </c>
-      <c r="P116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>Bundle 1 Summary</t>
+          <t>Touch Up Pen for Light National Walnut Finish</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -13309,11 +13304,11 @@
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="117" outlineLevel="2" s="9">
+    <row r="117" outlineLevel="1" s="9">
       <c r="A117" t="inlineStr">
         <is>
           <t>SO</t>
@@ -13322,9 +13317,12 @@
       <c r="B117" t="n">
         <v>1015008</v>
       </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1_ALL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -13334,38 +13332,36 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2X4LL.289.15LNW</t>
+          <t>Total_Bundle_1</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>23</v>
-      </c>
-      <c r="J117" t="n">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K117" t="n">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="L117" t="n">
-        <v>102</v>
+        <v>550</v>
       </c>
       <c r="M117" t="n">
-        <v>102</v>
+        <v>581</v>
       </c>
       <c r="N117" t="n">
-        <v>7341</v>
+        <v>7340</v>
       </c>
       <c r="O117" t="n">
-        <v>26</v>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>BOX2</t>
-        </is>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>1-5/8" x 4" Link &amp; Lock 24 feet (Premium Light National Walnut) Box of 2</t>
+          <t>Bundle 1 Summary</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -13425,7 +13421,7 @@
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -13450,29 +13446,29 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2X4LL.289.15LNW_Partial</t>
+          <t>2X4LL.289.15LNW</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K118" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="L118" t="n">
         <v>102</v>
       </c>
       <c r="M118" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="N118" t="n">
         <v>7341</v>
       </c>
       <c r="O118" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -13541,7 +13537,7 @@
       </c>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -13566,34 +13562,38 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Pack_44Filler</t>
+          <t>2X4LL.289.15LNW_Partial</t>
         </is>
       </c>
       <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
         <v>2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>2</v>
       </c>
       <c r="L119" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M119" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="N119" t="n">
-        <v>3660</v>
+        <v>7341</v>
       </c>
       <c r="O119" t="n">
-        <v>2</v>
-      </c>
-      <c r="P119" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>BOX2</t>
+        </is>
+      </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>4"x4" FILLER BOX</t>
+          <t>1-5/8" x 4" Link &amp; Lock 24 feet (Premium Light National Walnut) Box of 2</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -13653,11 +13653,11 @@
       </c>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="120" outlineLevel="3" s="9">
+    <row r="120" outlineLevel="2" s="9">
       <c r="A120" t="inlineStr">
         <is>
           <t>SO</t>
@@ -13678,34 +13678,34 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Pack_Angle_7340</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M120" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N120" t="n">
-        <v>7320</v>
+        <v>3660</v>
       </c>
       <c r="O120" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD</t>
+          <t>4"x4" FILLER BOX</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -13765,11 +13765,11 @@
       </c>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="121" outlineLevel="3" s="9">
+    <row r="121" outlineLevel="2" s="9">
       <c r="A121" t="inlineStr">
         <is>
           <t>SO</t>
@@ -13790,34 +13790,38 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun_7340</t>
+          <t>2LLEC.6.15LNW</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K121" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L121" t="n">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="M121" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N121" t="n">
-        <v>965</v>
+        <v>178</v>
       </c>
       <c r="O121" t="n">
-        <v>2</v>
-      </c>
-      <c r="P121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>BOX20</t>
+        </is>
+      </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE</t>
+          <t>1-5/8" Link &amp; Lock End Cap 6 inches (Premium Light National Walnut) Box of 20</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -13877,11 +13881,11 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="122" outlineLevel="3" s="9">
+    <row r="122" outlineLevel="2" s="9">
       <c r="A122" t="inlineStr">
         <is>
           <t>SO</t>
@@ -13902,34 +13906,38 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_7340</t>
+          <t>2LLEC.4.15LNW</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J122" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K122" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="L122" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="M122" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N122" t="n">
-        <v>965</v>
+        <v>152</v>
       </c>
       <c r="O122" t="n">
-        <v>4</v>
-      </c>
-      <c r="P122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>BOX20</t>
+        </is>
+      </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE</t>
+          <t>1-5/8" Link &amp; Lock End Cap 4 inches (Premium Light National Walnut) Box of 20</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -13989,7 +13997,7 @@
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -14014,34 +14022,34 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bndl_Wrp_7340</t>
+          <t>Pack_Angle_7340</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K123" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>483</v>
+        <v>75</v>
       </c>
       <c r="M123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N123" t="n">
         <v>7320</v>
       </c>
       <c r="O123" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
+          <t>PRINTED ANGLEBOARD</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -14101,7 +14109,7 @@
       </c>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -14126,7 +14134,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bndl_Wrp_7340</t>
+          <t>Pack_1x4x19_Dun_7340</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -14139,21 +14147,21 @@
         <v>4</v>
       </c>
       <c r="L124" t="n">
-        <v>483</v>
+        <v>89</v>
       </c>
       <c r="M124" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N124" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap</t>
+          <t>1" X 4" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -14213,11 +14221,11 @@
       </c>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="125" outlineLevel="2" s="9">
+    <row r="125" outlineLevel="3" s="9">
       <c r="A125" t="inlineStr">
         <is>
           <t>SO</t>
@@ -14238,34 +14246,34 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_7340</t>
+          <t>Pack_2x3x19_Dun_7340</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>4</v>
       </c>
       <c r="K125" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L125" t="n">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="M125" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N125" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+          <t>2" X 3" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -14325,11 +14333,11 @@
       </c>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="126" outlineLevel="1" s="9">
+    <row r="126" outlineLevel="3" s="9">
       <c r="A126" t="inlineStr">
         <is>
           <t>SO</t>
@@ -14338,12 +14346,9 @@
       <c r="B126" t="n">
         <v>1015008</v>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2_ALL</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -14353,36 +14358,34 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Total_Bundle_2</t>
+          <t>Pack_Sub_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>15</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4</v>
       </c>
       <c r="K126" t="n">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="L126" t="n">
-        <v>175</v>
+        <v>483</v>
       </c>
       <c r="M126" t="n">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="N126" t="n">
-        <v>7340</v>
+        <v>7320</v>
       </c>
       <c r="O126" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>Bundle 2 Summary</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -14442,11 +14445,11 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="127" outlineLevel="2" s="9">
+    <row r="127" outlineLevel="3" s="9">
       <c r="A127" t="inlineStr">
         <is>
           <t>SO</t>
@@ -14456,7 +14459,7 @@
         <v>1015008</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -14467,38 +14470,34 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2X6LL.289.15LNW_Partial</t>
+          <t>Pack_Mst_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L127" t="n">
-        <v>159</v>
+        <v>483</v>
       </c>
       <c r="M127" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>7341</v>
+        <v>7320</v>
       </c>
       <c r="O127" t="n">
-        <v>16</v>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>BOX2</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>1-5/8" x 6" Link &amp; Lock 24 feet (Premium Light National Walnut) Box of 2</t>
+          <t>Master Bundle - Stretch Wrap</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -14558,7 +14557,7 @@
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -14572,7 +14571,7 @@
         <v>1015008</v>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -14583,38 +14582,34 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2LLEC.6.15LNW</t>
+          <t>Pack_Pad_19_7340</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K128" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L128" t="n">
-        <v>127</v>
+        <v>483</v>
       </c>
       <c r="M128" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="N128" t="n">
-        <v>178</v>
+        <v>7320</v>
       </c>
       <c r="O128" t="n">
-        <v>1</v>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>BOX20</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>1-5/8" Link &amp; Lock End Cap 6 inches (Premium Light National Walnut) Box of 20</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -14674,11 +14669,11 @@
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="129" outlineLevel="2" s="9">
+    <row r="129" outlineLevel="1" s="9">
       <c r="A129" t="inlineStr">
         <is>
           <t>SO</t>
@@ -14687,9 +14682,12 @@
       <c r="B129" t="n">
         <v>1015008</v>
       </c>
-      <c r="C129" t="n">
-        <v>2</v>
-      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2_ALL</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -14699,38 +14697,36 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2LLEC.4.15LNW</t>
+          <t>Total_Bundle_2</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>6</v>
-      </c>
-      <c r="J129" t="n">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K129" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="L129" t="n">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="M129" t="n">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="N129" t="n">
-        <v>152</v>
+        <v>7340</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>BOX20</t>
-        </is>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>1-5/8" Link &amp; Lock End Cap 4 inches (Premium Light National Walnut) Box of 20</t>
+          <t>Bundle 2 Summary</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -14790,11 +14786,11 @@
       </c>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="130" outlineLevel="3" s="9">
+    <row r="130" outlineLevel="2" s="9">
       <c r="A130" t="inlineStr">
         <is>
           <t>SO</t>
@@ -14815,34 +14811,38 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Pack_Angle_7340</t>
+          <t>2X6LL.289.15LNW_Partial</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K130" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="M130" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="N130" t="n">
-        <v>7320</v>
+        <v>7341</v>
       </c>
       <c r="O130" t="n">
-        <v>11</v>
-      </c>
-      <c r="P130" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>BOX2</t>
+        </is>
+      </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD</t>
+          <t>1-5/8" x 6" Link &amp; Lock 24 feet (Premium Light National Walnut) Box of 2</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -14927,34 +14927,34 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun_7340</t>
+          <t>Pack_Angle_7340</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K131" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L131" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M131" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N131" t="n">
-        <v>965</v>
+        <v>7320</v>
       </c>
       <c r="O131" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE</t>
+          <t>PRINTED ANGLEBOARD</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -15039,7 +15039,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_7340</t>
+          <t>Pack_1x4x19_Dun_7340</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -15052,21 +15052,21 @@
         <v>4</v>
       </c>
       <c r="L132" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M132" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N132" t="n">
         <v>965</v>
       </c>
       <c r="O132" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE</t>
+          <t>1" X 4" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -15126,7 +15126,7 @@
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -15151,7 +15151,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bndl_Wrp_7340</t>
+          <t>Pack_2x3x19_Dun_7340</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -15164,21 +15164,21 @@
         <v>4</v>
       </c>
       <c r="L133" t="n">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="M133" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N133" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
+          <t>2" X 3" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -15263,7 +15263,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bndl_Wrp_7340</t>
+          <t>Pack_Sub_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -15285,12 +15285,12 @@
         <v>7320</v>
       </c>
       <c r="O134" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -15375,7 +15375,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Pack_Pad_8_7340</t>
+          <t>Pack_Mst_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -15388,7 +15388,7 @@
         <v>4</v>
       </c>
       <c r="L135" t="n">
-        <v>216</v>
+        <v>483</v>
       </c>
       <c r="M135" t="n">
         <v>3</v>
@@ -15397,12 +15397,12 @@
         <v>7320</v>
       </c>
       <c r="O135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>PAD - 8-1/2" X 144" DW ECT #3 WHITE</t>
+          <t>Master Bundle - Stretch Wrap</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -15462,11 +15462,11 @@
       </c>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="136" outlineLevel="2" s="9">
+    <row r="136" outlineLevel="3" s="9">
       <c r="A136" t="inlineStr">
         <is>
           <t>SO</t>
@@ -15487,34 +15487,34 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Pack_Lumber_7340</t>
+          <t>Pack_Pad_8_7340</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L136" t="n">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="M136" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N136" t="n">
         <v>7320</v>
       </c>
       <c r="O136" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>COMMON LUMBER - 1" X 4" X 12'</t>
+          <t>PAD - 8-1/2" X 144" DW ECT #3 WHITE</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -15574,11 +15574,11 @@
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="137" outlineLevel="1" s="9">
+    <row r="137" outlineLevel="2" s="9">
       <c r="A137" t="inlineStr">
         <is>
           <t>SO</t>
@@ -15587,12 +15587,9 @@
       <c r="B137" t="n">
         <v>1015008</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>3_ALL</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>2</v>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -15602,36 +15599,34 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Total_Bundle_3</t>
+          <t>Pack_Lumber_7340</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>8</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2</v>
       </c>
       <c r="K137" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>372</v>
+        <v>89</v>
       </c>
       <c r="M137" t="n">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="N137" t="n">
-        <v>3680</v>
+        <v>7320</v>
       </c>
       <c r="O137" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>Bundle 3 Summary</t>
+          <t>COMMON LUMBER - 1" X 4" X 12'</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -15691,11 +15686,11 @@
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="138" outlineLevel="2" s="9">
+    <row r="138" outlineLevel="1" s="9">
       <c r="A138" t="inlineStr">
         <is>
           <t>SO</t>
@@ -15704,9 +15699,12 @@
       <c r="B138" t="n">
         <v>1015008</v>
       </c>
-      <c r="C138" t="n">
-        <v>3</v>
-      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3_ALL</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -15716,38 +15714,36 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>LLTAPE.1296_Partial</t>
+          <t>Total_Bundle_3</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K138" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L138" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="M138" t="n">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="N138" t="n">
-        <v>356</v>
+        <v>3680</v>
       </c>
       <c r="O138" t="n">
-        <v>3</v>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>Link &amp; Lock Internal Stiffener - Double Sided Mounting Tape - 10 108 feet</t>
+          <t>Bundle 3 Summary</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -15807,11 +15803,11 @@
       </c>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="139" outlineLevel="3" s="9">
+    <row r="139" outlineLevel="2" s="9">
       <c r="A139" t="inlineStr">
         <is>
           <t>SO</t>
@@ -15832,34 +15828,38 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Pack_Angle_3680</t>
+          <t>LLTAPE.1296_Partial</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L139" t="n">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="M139" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="N139" t="n">
-        <v>3660</v>
+        <v>356</v>
       </c>
       <c r="O139" t="n">
-        <v>5</v>
-      </c>
-      <c r="P139" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD</t>
+          <t>Link &amp; Lock Internal Stiffener - Double Sided Mounting Tape - 10 108 feet</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -15919,7 +15919,7 @@
       </c>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -15944,34 +15944,34 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun_3680</t>
+          <t>Pack_Angle_3680</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L140" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M140" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N140" t="n">
-        <v>483</v>
+        <v>3660</v>
       </c>
       <c r="O140" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE</t>
+          <t>PRINTED ANGLEBOARD</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16056,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_3680</t>
+          <t>Pack_1x4x19_Dun_3680</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -16069,21 +16069,21 @@
         <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M141" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N141" t="n">
         <v>483</v>
       </c>
       <c r="O141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE</t>
+          <t>1" X 4" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -16168,7 +16168,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bndl_Wrp_3680</t>
+          <t>Pack_2x3x19_Dun_3680</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -16181,13 +16181,13 @@
         <v>2</v>
       </c>
       <c r="L142" t="n">
+        <v>64</v>
+      </c>
+      <c r="M142" t="n">
+        <v>38</v>
+      </c>
+      <c r="N142" t="n">
         <v>483</v>
-      </c>
-      <c r="M142" t="n">
-        <v>3</v>
-      </c>
-      <c r="N142" t="n">
-        <v>3660</v>
       </c>
       <c r="O142" t="n">
         <v>2</v>
@@ -16195,7 +16195,7 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
+          <t>2" X 3" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -16280,7 +16280,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bndl_Wrp_3680</t>
+          <t>Pack_Sub_Bndl_Wrp_3680</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -16302,12 +16302,12 @@
         <v>3660</v>
       </c>
       <c r="O143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -16392,7 +16392,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_3680</t>
+          <t>Pack_Mst_Bndl_Wrp_3680</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -16414,12 +16414,12 @@
         <v>3660</v>
       </c>
       <c r="O144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+          <t>Master Bundle - Stretch Wrap</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -16479,11 +16479,11 @@
       </c>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="145" outlineLevel="2" s="9">
+    <row r="145" outlineLevel="3" s="9">
       <c r="A145" t="inlineStr">
         <is>
           <t>SO</t>
@@ -16504,23 +16504,23 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Pack_Lumber_3680</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="M145" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N145" t="n">
         <v>3660</v>
@@ -16531,191 +16531,184 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr">
         <is>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Rodsal Builders</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>52378 Cesar Chavez Street</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>Coachella</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>COMMONCARRIER</t>
+        </is>
+      </c>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" outlineLevel="2" s="9">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1015008</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MACH5</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Pack_Lumber_3680</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>89</v>
+      </c>
+      <c r="M146" t="n">
+        <v>19</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3660</v>
+      </c>
+      <c r="O146" t="n">
+        <v>3</v>
+      </c>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr">
+        <is>
           <t>COMMON LUMBER - 1" X 4" X 12'</t>
         </is>
       </c>
-      <c r="R145" t="inlineStr">
+      <c r="R146" t="inlineStr">
         <is>
           <t>Rodsal Builders</t>
         </is>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="S146" t="inlineStr">
         <is>
           <t>52378 Cesar Chavez Street</t>
         </is>
       </c>
-      <c r="U145" t="inlineStr">
+      <c r="U146" t="inlineStr">
         <is>
           <t>Coachella</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr">
+      <c r="V146" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="W145" t="inlineStr">
+      <c r="W146" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="X145" t="inlineStr">
+      <c r="X146" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="Y145" t="inlineStr">
+      <c r="Y146" t="inlineStr">
         <is>
           <t>2025-10-17</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
+      <c r="Z146" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="AA145" t="inlineStr">
+      <c r="AA146" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="AD145" t="inlineStr">
+      <c r="AD146" t="inlineStr">
         <is>
           <t>COMMONCARRIER</t>
         </is>
       </c>
-      <c r="AE145" t="inlineStr">
+      <c r="AE146" t="inlineStr">
         <is>
           <t>2025-10-31</t>
         </is>
       </c>
-      <c r="AF145" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="146" s="9"/>
-    <row r="147" s="9">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>1015249</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Total_Order</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>36</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K147" t="n">
-        <v>401</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O147" t="n">
-        <v>421</v>
-      </c>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>Total Order Summary</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>Front Range Roofing Sys</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>222 13th Avenue</t>
-        </is>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>Front Range</t>
-        </is>
-      </c>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="W147" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="X147" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="Y147" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="AA147" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="AD147" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AE147" t="inlineStr">
-        <is>
-          <t>2025-11-14</t>
-        </is>
-      </c>
-      <c r="AF147" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="148" outlineLevel="1" s="9">
+    <row r="147" s="9"/>
+    <row r="148" s="9">
       <c r="A148" t="inlineStr">
         <is>
           <t>SO</t>
@@ -16726,7 +16719,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0_ALL</t>
+          <t>ALL</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -16735,46 +16728,42 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Missing_SKUs</t>
+          <t>Total_Order</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="K148" t="n">
+        <v>403</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="N148" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="O148" t="n">
+        <v>425</v>
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>Missing SKUs Summary</t>
+          <t>Total Order Summary</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -16834,11 +16823,11 @@
       </c>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="149" outlineLevel="2" s="9">
+    <row r="149" outlineLevel="1" s="9">
       <c r="A149" t="inlineStr">
         <is>
           <t>SO</t>
@@ -16847,19 +16836,22 @@
       <c r="B149" t="n">
         <v>1015249</v>
       </c>
-      <c r="C149" t="n">
-        <v>0</v>
-      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0_ALL</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2X2PC.2.15SYP</t>
+          <t>Missing_SKUs</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -16891,14 +16883,10 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>BOX20</t>
-        </is>
-      </c>
+      <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>1-1/2" x 2-1/8" Single Post End Cap 2 inches (Premium Southern Yellow Pine) Box of 20</t>
+          <t>Missing SKUs Summary</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -16958,7 +16946,7 @@
       </c>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -16979,11 +16967,11 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>TUP.10300</t>
+          <t>2X2PC.2.15SYP</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -17017,12 +17005,12 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX20</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>Touch Up Pen for Biscotti &amp; Southern Yellow Pine Finishes</t>
+          <t>1-1/2" x 2-1/8" Single Post End Cap 2 inches (Premium Southern Yellow Pine) Box of 20</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -17082,11 +17070,11 @@
       </c>
       <c r="AF150" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="151" outlineLevel="1" s="9">
+    <row r="151" outlineLevel="2" s="9">
       <c r="A151" t="inlineStr">
         <is>
           <t>SO</t>
@@ -17095,51 +17083,58 @@
       <c r="B151" t="n">
         <v>1015249</v>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>1_ALL</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>MACH5</t>
-        </is>
-      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Total_Bundle_1</t>
+          <t>TUP.10300</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="K151" t="n">
-        <v>401</v>
-      </c>
-      <c r="L151" t="n">
-        <v>489</v>
-      </c>
-      <c r="M151" t="n">
-        <v>353</v>
-      </c>
-      <c r="N151" t="n">
-        <v>7340</v>
-      </c>
-      <c r="O151" t="n">
-        <v>421</v>
-      </c>
-      <c r="P151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>Bundle 1 Summary</t>
+          <t>Touch Up Pen for Biscotti &amp; Southern Yellow Pine Finishes</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -17199,11 +17194,11 @@
       </c>
       <c r="AF151" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="152" outlineLevel="2" s="9">
+    <row r="152" outlineLevel="1" s="9">
       <c r="A152" t="inlineStr">
         <is>
           <t>SO</t>
@@ -17212,9 +17207,12 @@
       <c r="B152" t="n">
         <v>1015249</v>
       </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1_ALL</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
           <t>MACH5</t>
@@ -17224,38 +17222,36 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>1X5B.289.15SYP</t>
+          <t>Total_Bundle_1</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="K152" t="n">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="L152" t="n">
-        <v>102</v>
+        <v>523</v>
       </c>
       <c r="M152" t="n">
-        <v>127</v>
+        <v>371</v>
       </c>
       <c r="N152" t="n">
-        <v>7341</v>
+        <v>7340</v>
       </c>
       <c r="O152" t="n">
-        <v>46</v>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>1 x 5 Beam 24 feet (Premium Southern Yellow Pine)</t>
+          <t>Bundle 1 Summary</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -17315,7 +17311,7 @@
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -17340,38 +17336,38 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>6VR.289.15SYP</t>
+          <t>1X5B.289.15SYP</t>
         </is>
       </c>
       <c r="I153" t="n">
+        <v>3</v>
+      </c>
+      <c r="J153" t="n">
         <v>4</v>
       </c>
-      <c r="J153" t="n">
-        <v>8</v>
-      </c>
       <c r="K153" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L153" t="n">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="M153" t="n">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="N153" t="n">
         <v>7341</v>
       </c>
       <c r="O153" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>BOX8</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>6" V-Groove - Rib 24 feet (Premium Southern Yellow Pine) Box of 8</t>
+          <t>1 x 5 Beam 24 feet (Premium Southern Yellow Pine)</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -17431,7 +17427,7 @@
       </c>
       <c r="AF153" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -17456,29 +17452,29 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2X2SP.289.15SYP_Partial</t>
+          <t>1TJT.145.15SYP_Partial</t>
         </is>
       </c>
       <c r="I154" t="n">
         <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K154" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L154" t="n">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="M154" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="N154" t="n">
-        <v>7341</v>
+        <v>3680</v>
       </c>
       <c r="O154" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -17487,7 +17483,7 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>1-1/2" x 2" Single Post 24 feet (Premium Southern Yellow Pine)</t>
+          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Southern Yellow Pine)</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -17547,7 +17543,7 @@
       </c>
       <c r="AF154" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -17572,38 +17568,38 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>3PSMB.1.15OBL</t>
+          <t>2TJT.145.15SYP_Partial</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K155" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L155" t="n">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="M155" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="N155" t="n">
-        <v>229</v>
+        <v>3680</v>
       </c>
       <c r="O155" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>BOX100</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>3" Privacy Screen Mounting Bracket 1 inch (Premium Onyx Black) Box of 100</t>
+          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Southern Yellow Pine)</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -17663,7 +17659,7 @@
       </c>
       <c r="AF155" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -17688,38 +17684,38 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1X2FB.1.15OBL</t>
+          <t>2BA.145.15OBL_Partial</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="M156" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="N156" t="n">
-        <v>25</v>
+        <v>3680</v>
       </c>
       <c r="O156" t="n">
         <v>1</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>BOX100</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>Spacer Bar 1 inch (Premium Onyx Black) Box of 100</t>
+          <t>1/2" Base - 2FRS / 2URS - Component 1 12 feet (Premium Onyx Black)</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -17779,7 +17775,7 @@
       </c>
       <c r="AF156" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -17804,29 +17800,29 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2TJT.145.15SYP_Partial</t>
+          <t>2FR.145.15SYP_Partial</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L157" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="M157" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="N157" t="n">
         <v>3680</v>
       </c>
       <c r="O157" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -17835,7 +17831,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>1-3/8" Cap - 1X2JT / 2TS - Component 1 12 feet (Premium Southern Yellow Pine)</t>
+          <t>1-1/2" Flat Reveal - 2FRS - Component 2 12 feet (Premium Southern Yellow Pine)</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -17895,7 +17891,7 @@
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -17920,29 +17916,29 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1TJT.145.15SYP_Partial</t>
+          <t>2BTBSS.145.15OBL_Partial</t>
         </is>
       </c>
       <c r="I158" t="n">
         <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L158" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M158" t="n">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="N158" t="n">
         <v>3680</v>
       </c>
       <c r="O158" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -17951,7 +17947,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Southern Yellow Pine)</t>
+          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -18011,7 +18007,7 @@
       </c>
       <c r="AF158" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -18036,38 +18032,38 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL_Partial</t>
+          <t>6VR.289.15SYP</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K159" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="L159" t="n">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="M159" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N159" t="n">
-        <v>3680</v>
+        <v>7341</v>
       </c>
       <c r="O159" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>1/2" Base - 2FRS / 2URS - Component 1 12 feet (Premium Onyx Black)</t>
+          <t>6" V-Groove - Rib 24 feet (Premium Southern Yellow Pine) Box of 8</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
@@ -18127,7 +18123,7 @@
       </c>
       <c r="AF159" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -18152,38 +18148,38 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1BEC.5.15SYP</t>
+          <t>2X2SP.289.15SYP_Partial</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2</v>
+      </c>
+      <c r="L160" t="n">
+        <v>140</v>
+      </c>
+      <c r="M160" t="n">
+        <v>19</v>
+      </c>
+      <c r="N160" t="n">
+        <v>7341</v>
+      </c>
+      <c r="O160" t="n">
         <v>20</v>
       </c>
-      <c r="K160" t="n">
-        <v>100</v>
-      </c>
-      <c r="L160" t="n">
-        <v>25</v>
-      </c>
-      <c r="M160" t="n">
-        <v>14</v>
-      </c>
-      <c r="N160" t="n">
-        <v>127</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0</v>
-      </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>BOX20</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>1" Beam End Cap 5 inches (Premium Southern Yellow Pine) Box of 20</t>
+          <t>1-1/2" x 2" Single Post 24 feet (Premium Southern Yellow Pine)</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -18243,7 +18239,7 @@
       </c>
       <c r="AF160" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -18268,38 +18264,38 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2FR.145.15SYP_Partial</t>
+          <t>1X2FB.1.15OBL</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="M161" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N161" t="n">
-        <v>3680</v>
+        <v>25</v>
       </c>
       <c r="O161" t="n">
         <v>1</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX100</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>1-1/2" Flat Reveal - 2FRS - Component 2 12 feet (Premium Southern Yellow Pine)</t>
+          <t>Spacer Bar 1 inch (Premium Onyx Black) Box of 100</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -18359,7 +18355,7 @@
       </c>
       <c r="AF161" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -18384,38 +18380,38 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL_Partial</t>
+          <t>1BEC.5.15SYP</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K162" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M162" t="n">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="N162" t="n">
-        <v>3680</v>
+        <v>127</v>
       </c>
       <c r="O162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX20</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
+          <t>1" Beam End Cap 5 inches (Premium Southern Yellow Pine) Box of 20</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
@@ -18475,11 +18471,11 @@
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="163" outlineLevel="3" s="9">
+    <row r="163" outlineLevel="2" s="9">
       <c r="A163" t="inlineStr">
         <is>
           <t>SO</t>
@@ -18500,34 +18496,34 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Pack_Angle_7340</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L163" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M163" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N163" t="n">
-        <v>7320</v>
+        <v>3660</v>
       </c>
       <c r="O163" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD</t>
+          <t>6"x2" FILLER BOX</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
@@ -18587,11 +18583,11 @@
       </c>
       <c r="AF163" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="164" outlineLevel="3" s="9">
+    <row r="164" outlineLevel="2" s="9">
       <c r="A164" t="inlineStr">
         <is>
           <t>SO</t>
@@ -18612,34 +18608,38 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun_7340</t>
+          <t>3PSMB.1.15OBL</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="K164" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L164" t="n">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="M164" t="n">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="N164" t="n">
-        <v>965</v>
+        <v>229</v>
       </c>
       <c r="O164" t="n">
         <v>2</v>
       </c>
-      <c r="P164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>BOX100</t>
+        </is>
+      </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE</t>
+          <t>3" Privacy Screen Mounting Bracket 1 inch (Premium Onyx Black) Box of 100</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="AF164" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -18724,34 +18724,34 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_7340</t>
+          <t>Pack_Angle_7340</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K165" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L165" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M165" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="N165" t="n">
-        <v>965</v>
+        <v>7320</v>
       </c>
       <c r="O165" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE</t>
+          <t>PRINTED ANGLEBOARD</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -18811,7 +18811,7 @@
       </c>
       <c r="AF165" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bndl_Wrp_7340</t>
+          <t>Pack_1x4x19_Dun_7340</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -18849,21 +18849,21 @@
         <v>4</v>
       </c>
       <c r="L166" t="n">
-        <v>483</v>
+        <v>89</v>
       </c>
       <c r="M166" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N166" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O166" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
+          <t>1" X 4" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -18923,7 +18923,7 @@
       </c>
       <c r="AF166" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -18948,7 +18948,7 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bndl_Wrp_7340</t>
+          <t>Pack_2x3x19_Dun_7340</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -18961,21 +18961,21 @@
         <v>4</v>
       </c>
       <c r="L167" t="n">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="M167" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N167" t="n">
-        <v>7320</v>
+        <v>965</v>
       </c>
       <c r="O167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap</t>
+          <t>2" X 3" X 19" DUNNAGE</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
@@ -19060,7 +19060,7 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Pack_Pad_19_7340</t>
+          <t>Pack_Sub_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -19087,7 +19087,7 @@
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -19147,11 +19147,11 @@
       </c>
       <c r="AF168" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="169" outlineLevel="2" s="9">
+    <row r="169" outlineLevel="3" s="9">
       <c r="A169" t="inlineStr">
         <is>
           <t>SO</t>
@@ -19172,7 +19172,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Pack_Pad_13_7340</t>
+          <t>Pack_Mst_Bndl_Wrp_7340</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -19185,7 +19185,7 @@
         <v>4</v>
       </c>
       <c r="L169" t="n">
-        <v>330</v>
+        <v>483</v>
       </c>
       <c r="M169" t="n">
         <v>3</v>
@@ -19194,76 +19194,300 @@
         <v>7320</v>
       </c>
       <c r="O169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr">
         <is>
+          <t>Master Bundle - Stretch Wrap</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Front Range Roofing Sys</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>222 13th Avenue</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>Front Range</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="AA169" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>COMMONCARRIER</t>
+        </is>
+      </c>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" outlineLevel="3" s="9">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1015249</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>MACH5</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Pack_Pad_19_7340</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>4</v>
+      </c>
+      <c r="K170" t="n">
+        <v>4</v>
+      </c>
+      <c r="L170" t="n">
+        <v>483</v>
+      </c>
+      <c r="M170" t="n">
+        <v>3</v>
+      </c>
+      <c r="N170" t="n">
+        <v>7320</v>
+      </c>
+      <c r="O170" t="n">
+        <v>5</v>
+      </c>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Front Range Roofing Sys</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>222 13th Avenue</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>Front Range</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="AA170" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="AD170" t="inlineStr">
+        <is>
+          <t>COMMONCARRIER</t>
+        </is>
+      </c>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" outlineLevel="2" s="9">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1015249</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>MACH5</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Pack_Pad_13_7340</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4</v>
+      </c>
+      <c r="K171" t="n">
+        <v>4</v>
+      </c>
+      <c r="L171" t="n">
+        <v>330</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" t="n">
+        <v>7320</v>
+      </c>
+      <c r="O171" t="n">
+        <v>4</v>
+      </c>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr">
+        <is>
           <t>PAD - 13" X 144" DW ECT #3 WHITE</t>
         </is>
       </c>
-      <c r="R169" t="inlineStr">
+      <c r="R171" t="inlineStr">
         <is>
           <t>Front Range Roofing Sys</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="S171" t="inlineStr">
         <is>
           <t>222 13th Avenue</t>
         </is>
       </c>
-      <c r="U169" t="inlineStr">
+      <c r="U171" t="inlineStr">
         <is>
           <t>Front Range</t>
         </is>
       </c>
-      <c r="V169" t="inlineStr">
+      <c r="V171" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="W169" t="inlineStr">
+      <c r="W171" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="X169" t="inlineStr">
+      <c r="X171" t="inlineStr">
         <is>
           <t>Shipping</t>
         </is>
       </c>
-      <c r="Y169" t="inlineStr">
+      <c r="Y171" t="inlineStr">
         <is>
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr">
+      <c r="Z171" t="inlineStr">
         <is>
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="AA169" t="inlineStr">
+      <c r="AA171" t="inlineStr">
         <is>
           <t>2025-11-05</t>
         </is>
       </c>
-      <c r="AD169" t="inlineStr">
+      <c r="AD171" t="inlineStr">
         <is>
           <t>COMMONCARRIER</t>
         </is>
       </c>
-      <c r="AE169" t="inlineStr">
+      <c r="AE171" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="AF169" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
         </is>
       </c>
     </row>
-    <row r="170" outlineLevel="1" s="9"/>
+    <row r="172" outlineLevel="1" s="9"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/sample_data/data_dec11/Optimized_Bundles.xlsx
+++ b/sample_data/data_dec11/Optimized_Bundles.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Optimized_Bundles" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Order_Comparison" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -30,12 +31,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d9e7fd"/>
+        <bgColor rgb="00D9E1F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,7 +57,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -61,6 +68,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,10 +160,10 @@
     <tableColumn id="9" name="Quantity"/>
     <tableColumn id="10" name="Pcs/Bundle"/>
     <tableColumn id="11" name="TotalPcs"/>
-    <tableColumn id="12" name="Width_mm"/>
-    <tableColumn id="13" name="Height_mm"/>
-    <tableColumn id="14" name="Length_mm"/>
-    <tableColumn id="15" name="Weight_kg"/>
+    <tableColumn id="12" name="Width_in"/>
+    <tableColumn id="13" name="Height_in"/>
+    <tableColumn id="14" name="Length_in"/>
+    <tableColumn id="15" name="Weight_lbs"/>
     <tableColumn id="16" name="UOM"/>
     <tableColumn id="17" name="Description"/>
     <tableColumn id="18" name="ShipTo"/>
@@ -175,6 +183,22 @@
     <tableColumn id="32" name="OptimizedOn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="OrderComparisonTable" displayName="OrderComparisonTable" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SOrderNbr"/>
+    <tableColumn id="2" name="Opt_Bund"/>
+    <tableColumn id="3" name="Actual_Bund"/>
+    <tableColumn id="4" name="Bundle_Error"/>
+    <tableColumn id="5" name="Opt_lbs"/>
+    <tableColumn id="6" name="Actual_lbs"/>
+    <tableColumn id="7" name="lbs_Error"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleNone" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -446,22 +470,22 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Width_mm</t>
+          <t>Width_in</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Height_mm</t>
+          <t>Height_in</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Length_mm</t>
+          <t>Length_in</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Weight_kg</t>
+          <t>Weight_lbs</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -600,7 +624,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1849</v>
+        <v>4077</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
@@ -665,7 +689,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -708,16 +732,16 @@
         <v>142</v>
       </c>
       <c r="L3" t="n">
-        <v>550</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>594</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O3" t="n">
-        <v>1015</v>
+        <v>2238</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
@@ -782,7 +806,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -820,16 +844,16 @@
         <v>110</v>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -898,7 +922,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -936,16 +960,16 @@
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O5" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
@@ -1010,7 +1034,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1048,16 +1072,16 @@
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
@@ -1122,7 +1146,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1160,16 +1184,16 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>38</v>
       </c>
-      <c r="N7" t="n">
-        <v>965</v>
-      </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
@@ -1234,7 +1258,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1272,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
@@ -1346,7 +1370,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1384,16 +1408,16 @@
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
@@ -1458,7 +1482,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1496,16 +1520,16 @@
         <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
@@ -1570,7 +1594,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1613,16 +1637,16 @@
         <v>117</v>
       </c>
       <c r="L11" t="n">
-        <v>550</v>
+        <v>22</v>
       </c>
       <c r="M11" t="n">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="N11" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O11" t="n">
-        <v>792</v>
+        <v>1746</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
@@ -1687,7 +1711,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1725,16 +1749,16 @@
         <v>85</v>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O12" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1803,7 +1827,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1841,16 +1865,16 @@
         <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O13" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
@@ -1915,7 +1939,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -1953,16 +1977,16 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
@@ -2027,7 +2051,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2065,16 +2089,16 @@
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>38</v>
       </c>
-      <c r="N15" t="n">
-        <v>965</v>
-      </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
@@ -2139,7 +2163,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2177,16 +2201,16 @@
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -2251,7 +2275,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2289,16 +2313,16 @@
         <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
@@ -2363,7 +2387,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2401,16 +2425,16 @@
         <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
@@ -2475,7 +2499,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2518,16 +2542,16 @@
         <v>52</v>
       </c>
       <c r="L19" t="n">
-        <v>544</v>
+        <v>21</v>
       </c>
       <c r="M19" t="n">
-        <v>448</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O19" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
@@ -2592,7 +2616,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2630,16 +2654,16 @@
         <v>18</v>
       </c>
       <c r="L20" t="n">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="M20" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="N20" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="O20" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2708,7 +2732,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2770,16 @@
         <v>16</v>
       </c>
       <c r="L21" t="n">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="N21" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="O21" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2824,7 +2848,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2862,16 +2886,16 @@
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
@@ -2936,7 +2960,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -2974,16 +2998,16 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
         <v>19</v>
       </c>
-      <c r="N23" t="n">
-        <v>483</v>
-      </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
@@ -3048,7 +3072,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3086,16 +3110,16 @@
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
@@ -3160,7 +3184,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3198,16 +3222,16 @@
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
@@ -3272,7 +3296,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3310,16 +3334,16 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
@@ -3384,7 +3408,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3422,16 +3446,16 @@
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
@@ -3496,7 +3520,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3534,16 +3558,16 @@
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
@@ -3608,7 +3632,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3687,7 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -3733,7 +3757,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3776,16 +3800,16 @@
         <v>116</v>
       </c>
       <c r="L31" t="n">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="M31" t="n">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N31" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -3855,7 +3879,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -3893,16 +3917,16 @@
         <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="M32" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3976,7 +4000,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4014,13 +4038,13 @@
         <v>48</v>
       </c>
       <c r="L33" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4097,7 +4121,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4135,16 +4159,16 @@
         <v>48</v>
       </c>
       <c r="L34" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -4218,7 +4242,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4256,16 +4280,16 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -4335,7 +4359,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4373,16 +4397,16 @@
         <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
         <v>19</v>
       </c>
-      <c r="N36" t="n">
-        <v>483</v>
-      </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
@@ -4452,7 +4476,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4490,16 +4514,16 @@
         <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -4569,7 +4593,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4607,16 +4631,16 @@
         <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -4686,7 +4710,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4724,16 +4748,16 @@
         <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -4803,7 +4827,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4841,16 +4865,16 @@
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -4920,7 +4944,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -4958,16 +4982,16 @@
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -5037,7 +5061,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5116,7 @@
         </is>
       </c>
       <c r="O43" t="n">
-        <v>2838</v>
+        <v>6258</v>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
@@ -5157,7 +5181,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5200,16 +5224,16 @@
         <v>196</v>
       </c>
       <c r="L44" t="n">
-        <v>550</v>
+        <v>22</v>
       </c>
       <c r="M44" t="n">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="N44" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O44" t="n">
-        <v>1031</v>
+        <v>2273</v>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
@@ -5274,7 +5298,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5312,16 +5336,16 @@
         <v>152</v>
       </c>
       <c r="L45" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="N45" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O45" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -5390,7 +5414,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5428,16 +5452,16 @@
         <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O46" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -5506,7 +5530,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5544,16 +5568,16 @@
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
@@ -5618,7 +5642,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5656,16 +5680,16 @@
         <v>8</v>
       </c>
       <c r="L48" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O48" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
@@ -5730,7 +5754,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5768,16 +5792,16 @@
         <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -5842,7 +5866,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5880,16 +5904,16 @@
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
         <v>38</v>
       </c>
-      <c r="N50" t="n">
-        <v>965</v>
-      </c>
       <c r="O50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
@@ -5954,7 +5978,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -5992,16 +6016,16 @@
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -6066,7 +6090,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6104,16 +6128,16 @@
         <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -6178,7 +6202,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6216,16 +6240,16 @@
         <v>8</v>
       </c>
       <c r="L53" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O53" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -6290,7 +6314,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6333,16 +6357,16 @@
         <v>206</v>
       </c>
       <c r="L54" t="n">
-        <v>550</v>
+        <v>22</v>
       </c>
       <c r="M54" t="n">
-        <v>454</v>
+        <v>18</v>
       </c>
       <c r="N54" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O54" t="n">
-        <v>1032</v>
+        <v>2275</v>
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
@@ -6407,7 +6431,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6445,16 +6469,16 @@
         <v>152</v>
       </c>
       <c r="L55" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="N55" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O55" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -6523,7 +6547,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6561,16 +6585,16 @@
         <v>8</v>
       </c>
       <c r="L56" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O56" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -6639,7 +6663,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6677,16 +6701,16 @@
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
@@ -6751,7 +6775,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6789,16 +6813,16 @@
         <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -6867,7 +6891,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -6905,16 +6929,16 @@
         <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O59" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
@@ -6979,7 +7003,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7041,16 @@
         <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
@@ -7091,7 +7115,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7129,16 +7153,16 @@
         <v>4</v>
       </c>
       <c r="L61" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
         <v>38</v>
       </c>
-      <c r="N61" t="n">
-        <v>965</v>
-      </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
@@ -7203,7 +7227,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7241,16 +7265,16 @@
         <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
@@ -7315,7 +7339,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7353,16 +7377,16 @@
         <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
@@ -7427,7 +7451,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7465,16 +7489,16 @@
         <v>8</v>
       </c>
       <c r="L64" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O64" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
@@ -7539,7 +7563,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7582,16 +7606,16 @@
         <v>328</v>
       </c>
       <c r="L65" t="n">
-        <v>551</v>
+        <v>22</v>
       </c>
       <c r="M65" t="n">
-        <v>381</v>
+        <v>15</v>
       </c>
       <c r="N65" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O65" t="n">
-        <v>776</v>
+        <v>1710</v>
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
@@ -7656,7 +7680,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7694,16 +7718,16 @@
         <v>56</v>
       </c>
       <c r="L66" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="N66" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O66" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -7772,7 +7796,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7810,16 +7834,16 @@
         <v>56</v>
       </c>
       <c r="L67" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="N67" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O67" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -7888,7 +7912,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -7926,16 +7950,16 @@
         <v>5</v>
       </c>
       <c r="L68" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O68" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -8004,7 +8028,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8042,16 +8066,16 @@
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -8120,7 +8144,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8158,16 +8182,16 @@
         <v>8</v>
       </c>
       <c r="L70" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="M70" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O70" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -8236,7 +8260,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8274,16 +8298,16 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O71" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -8352,7 +8376,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8390,16 +8414,16 @@
         <v>16</v>
       </c>
       <c r="L72" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O72" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -8468,7 +8492,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8506,16 +8530,16 @@
         <v>20</v>
       </c>
       <c r="L73" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O73" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -8584,7 +8608,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8622,16 +8646,16 @@
         <v>20</v>
       </c>
       <c r="L74" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O74" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -8700,7 +8724,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8738,16 +8762,16 @@
         <v>20</v>
       </c>
       <c r="L75" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O75" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -8816,7 +8840,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8854,16 +8878,16 @@
         <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O76" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -8932,7 +8956,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -8970,16 +8994,16 @@
         <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O77" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -9048,7 +9072,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9086,16 +9110,16 @@
         <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O78" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -9164,7 +9188,7 @@
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9202,16 +9226,16 @@
         <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -9280,7 +9304,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9318,16 +9342,16 @@
         <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N80" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O80" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -9396,7 +9420,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9434,16 +9458,16 @@
         <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -9512,7 +9536,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9550,16 +9574,16 @@
         <v>5</v>
       </c>
       <c r="L82" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -9628,7 +9652,7 @@
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9666,16 +9690,16 @@
         <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -9744,7 +9768,7 @@
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9782,16 +9806,16 @@
         <v>20</v>
       </c>
       <c r="L84" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O84" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -9860,7 +9884,7 @@
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -9898,16 +9922,16 @@
         <v>20</v>
       </c>
       <c r="L85" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O85" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -9976,7 +10000,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10014,16 +10038,16 @@
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O86" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -10092,7 +10116,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10130,16 +10154,16 @@
         <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -10208,7 +10232,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10246,16 +10270,16 @@
         <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M88" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
@@ -10320,7 +10344,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10358,16 +10382,16 @@
         <v>8</v>
       </c>
       <c r="L89" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O89" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
@@ -10432,7 +10456,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10470,16 +10494,16 @@
         <v>4</v>
       </c>
       <c r="L90" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
@@ -10544,7 +10568,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10582,16 +10606,16 @@
         <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
         <v>38</v>
       </c>
-      <c r="N91" t="n">
-        <v>965</v>
-      </c>
       <c r="O91" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
@@ -10656,7 +10680,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10694,16 +10718,16 @@
         <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O92" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr">
@@ -10768,7 +10792,7 @@
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10806,16 +10830,16 @@
         <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr">
@@ -10880,7 +10904,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -10918,16 +10942,16 @@
         <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O94" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr">
@@ -10992,7 +11016,7 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11030,16 +11054,16 @@
         <v>4</v>
       </c>
       <c r="L95" t="n">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O95" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr">
@@ -11104,7 +11128,7 @@
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11159,7 +11183,7 @@
         </is>
       </c>
       <c r="O97" t="n">
-        <v>446</v>
+        <v>984</v>
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
@@ -11224,7 +11248,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11267,16 +11291,16 @@
         <v>150</v>
       </c>
       <c r="L98" t="n">
-        <v>423</v>
+        <v>17</v>
       </c>
       <c r="M98" t="n">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="N98" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O98" t="n">
-        <v>446</v>
+        <v>984</v>
       </c>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
@@ -11341,7 +11365,7 @@
       </c>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11379,16 +11403,16 @@
         <v>64</v>
       </c>
       <c r="L99" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="N99" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O99" t="n">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
@@ -11457,7 +11481,7 @@
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11495,16 +11519,16 @@
         <v>6</v>
       </c>
       <c r="L100" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M100" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
@@ -11573,7 +11597,7 @@
       </c>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11611,16 +11635,16 @@
         <v>20</v>
       </c>
       <c r="L101" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N101" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O101" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="P101" t="inlineStr">
         <is>
@@ -11689,7 +11713,7 @@
       </c>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11727,16 +11751,16 @@
         <v>10</v>
       </c>
       <c r="L102" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M102" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N102" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O102" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P102" t="inlineStr">
         <is>
@@ -11805,7 +11829,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11843,16 +11867,16 @@
         <v>12</v>
       </c>
       <c r="L103" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O103" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -11921,7 +11945,7 @@
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -11959,16 +11983,16 @@
         <v>4</v>
       </c>
       <c r="L104" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O104" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P104" t="inlineStr">
         <is>
@@ -12037,7 +12061,7 @@
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12075,16 +12099,16 @@
         <v>2</v>
       </c>
       <c r="L105" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M105" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -12153,7 +12177,7 @@
       </c>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12191,16 +12215,16 @@
         <v>8</v>
       </c>
       <c r="L106" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M106" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O106" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr">
@@ -12265,7 +12289,7 @@
       </c>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12303,16 +12327,16 @@
         <v>4</v>
       </c>
       <c r="L107" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M107" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N107" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr">
@@ -12377,7 +12401,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12415,16 +12439,16 @@
         <v>4</v>
       </c>
       <c r="L108" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
         <v>38</v>
       </c>
-      <c r="N108" t="n">
-        <v>965</v>
-      </c>
       <c r="O108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr">
@@ -12489,7 +12513,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12527,16 +12551,16 @@
         <v>4</v>
       </c>
       <c r="L109" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
@@ -12601,7 +12625,7 @@
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12639,16 +12663,16 @@
         <v>4</v>
       </c>
       <c r="L110" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr">
@@ -12713,7 +12737,7 @@
       </c>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12751,16 +12775,16 @@
         <v>4</v>
       </c>
       <c r="L111" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O111" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr">
@@ -12825,7 +12849,7 @@
       </c>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12863,16 +12887,16 @@
         <v>4</v>
       </c>
       <c r="L112" t="n">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="M112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O112" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
@@ -12937,7 +12961,7 @@
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -12992,7 +13016,7 @@
         </is>
       </c>
       <c r="O114" t="n">
-        <v>719</v>
+        <v>1586</v>
       </c>
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr">
@@ -13057,7 +13081,7 @@
       </c>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13204,7 @@
       </c>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13304,7 +13328,7 @@
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13347,16 +13371,16 @@
         <v>268</v>
       </c>
       <c r="L117" t="n">
-        <v>550</v>
+        <v>22</v>
       </c>
       <c r="M117" t="n">
-        <v>581</v>
+        <v>23</v>
       </c>
       <c r="N117" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O117" t="n">
-        <v>654</v>
+        <v>1443</v>
       </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr">
@@ -13421,7 +13445,7 @@
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13459,16 +13483,16 @@
         <v>92</v>
       </c>
       <c r="L118" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="M118" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="N118" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O118" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -13537,7 +13561,7 @@
       </c>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13575,16 +13599,16 @@
         <v>2</v>
       </c>
       <c r="L119" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="M119" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N119" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O119" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -13653,7 +13677,7 @@
       </c>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13691,16 +13715,16 @@
         <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="M120" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N120" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr">
@@ -13765,7 +13789,7 @@
       </c>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13803,16 +13827,16 @@
         <v>20</v>
       </c>
       <c r="L121" t="n">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="M121" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N121" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="O121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P121" t="inlineStr">
         <is>
@@ -13881,7 +13905,7 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -13919,13 +13943,13 @@
         <v>120</v>
       </c>
       <c r="L122" t="n">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="M122" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N122" t="n">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="O122" t="n">
         <v>1</v>
@@ -13997,7 +14021,7 @@
       </c>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14035,16 +14059,16 @@
         <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M123" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O123" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr">
@@ -14109,7 +14133,7 @@
       </c>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14147,16 +14171,16 @@
         <v>4</v>
       </c>
       <c r="L124" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M124" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr">
@@ -14221,7 +14245,7 @@
       </c>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14259,16 +14283,16 @@
         <v>4</v>
       </c>
       <c r="L125" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
         <v>38</v>
       </c>
-      <c r="N125" t="n">
-        <v>965</v>
-      </c>
       <c r="O125" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr">
@@ -14333,7 +14357,7 @@
       </c>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14371,16 +14395,16 @@
         <v>4</v>
       </c>
       <c r="L126" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O126" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr">
@@ -14445,7 +14469,7 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14483,16 +14507,16 @@
         <v>4</v>
       </c>
       <c r="L127" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr">
@@ -14557,7 +14581,7 @@
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14595,16 +14619,16 @@
         <v>8</v>
       </c>
       <c r="L128" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O128" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr">
@@ -14669,7 +14693,7 @@
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14712,16 +14736,16 @@
         <v>32</v>
       </c>
       <c r="L129" t="n">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="M129" t="n">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="N129" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O129" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr">
@@ -14786,7 +14810,7 @@
       </c>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14824,16 +14848,16 @@
         <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="M130" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="N130" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O130" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -14902,7 +14926,7 @@
       </c>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -14940,16 +14964,16 @@
         <v>8</v>
       </c>
       <c r="L131" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M131" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O131" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr">
@@ -15014,7 +15038,7 @@
       </c>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15052,16 +15076,16 @@
         <v>4</v>
       </c>
       <c r="L132" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M132" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr">
@@ -15126,7 +15150,7 @@
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15164,16 +15188,16 @@
         <v>4</v>
       </c>
       <c r="L133" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
         <v>38</v>
       </c>
-      <c r="N133" t="n">
-        <v>965</v>
-      </c>
       <c r="O133" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr">
@@ -15238,7 +15262,7 @@
       </c>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15276,16 +15300,16 @@
         <v>4</v>
       </c>
       <c r="L134" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O134" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr">
@@ -15350,7 +15374,7 @@
       </c>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15388,16 +15412,16 @@
         <v>4</v>
       </c>
       <c r="L135" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr">
@@ -15462,7 +15486,7 @@
       </c>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15500,16 +15524,16 @@
         <v>4</v>
       </c>
       <c r="L136" t="n">
-        <v>216</v>
+        <v>8</v>
       </c>
       <c r="M136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr">
@@ -15574,7 +15598,7 @@
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15612,16 +15636,16 @@
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M137" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N137" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O137" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr">
@@ -15686,7 +15710,7 @@
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15729,16 +15753,16 @@
         <v>20</v>
       </c>
       <c r="L138" t="n">
-        <v>372</v>
+        <v>15</v>
       </c>
       <c r="M138" t="n">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N138" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O138" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr">
@@ -15803,7 +15827,7 @@
       </c>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15841,16 +15865,16 @@
         <v>5</v>
       </c>
       <c r="L139" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="M139" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="N139" t="n">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="O139" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
@@ -15919,7 +15943,7 @@
       </c>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -15957,16 +15981,16 @@
         <v>4</v>
       </c>
       <c r="L140" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M140" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O140" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr">
@@ -16031,7 +16055,7 @@
       </c>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16069,16 +16093,16 @@
         <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
         <v>19</v>
       </c>
-      <c r="N141" t="n">
-        <v>483</v>
-      </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr">
@@ -16143,7 +16167,7 @@
       </c>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16181,16 +16205,16 @@
         <v>2</v>
       </c>
       <c r="L142" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M142" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N142" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="O142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr">
@@ -16255,7 +16279,7 @@
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16293,16 +16317,16 @@
         <v>2</v>
       </c>
       <c r="L143" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr">
@@ -16367,7 +16391,7 @@
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16405,16 +16429,16 @@
         <v>2</v>
       </c>
       <c r="L144" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr">
@@ -16479,7 +16503,7 @@
       </c>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16517,16 +16541,16 @@
         <v>2</v>
       </c>
       <c r="L145" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O145" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr">
@@ -16591,7 +16615,7 @@
       </c>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16629,16 +16653,16 @@
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M146" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N146" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O146" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr">
@@ -16703,7 +16727,7 @@
       </c>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16758,7 +16782,7 @@
         </is>
       </c>
       <c r="O148" t="n">
-        <v>425</v>
+        <v>938</v>
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr">
@@ -16823,7 +16847,7 @@
       </c>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -16946,7 +16970,7 @@
       </c>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17070,7 +17094,7 @@
       </c>
       <c r="AF150" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17194,7 +17218,7 @@
       </c>
       <c r="AF151" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17237,16 +17261,16 @@
         <v>403</v>
       </c>
       <c r="L152" t="n">
-        <v>523</v>
+        <v>21</v>
       </c>
       <c r="M152" t="n">
-        <v>371</v>
+        <v>15</v>
       </c>
       <c r="N152" t="n">
-        <v>7340</v>
+        <v>289</v>
       </c>
       <c r="O152" t="n">
-        <v>425</v>
+        <v>938</v>
       </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr">
@@ -17311,7 +17335,7 @@
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17349,17 +17373,17 @@
         <v>12</v>
       </c>
       <c r="L153" t="n">
+        <v>4</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>289</v>
+      </c>
+      <c r="O153" t="n">
         <v>102</v>
       </c>
-      <c r="M153" t="n">
-        <v>127</v>
-      </c>
-      <c r="N153" t="n">
-        <v>7341</v>
-      </c>
-      <c r="O153" t="n">
-        <v>46</v>
-      </c>
       <c r="P153" t="inlineStr">
         <is>
           <t>EA</t>
@@ -17427,7 +17451,7 @@
       </c>
       <c r="AF153" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17465,16 +17489,16 @@
         <v>10</v>
       </c>
       <c r="L154" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M154" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N154" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O154" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
@@ -17543,7 +17567,7 @@
       </c>
       <c r="AF154" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17581,16 +17605,16 @@
         <v>10</v>
       </c>
       <c r="L155" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M155" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N155" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O155" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
@@ -17659,7 +17683,7 @@
       </c>
       <c r="AF155" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17697,16 +17721,16 @@
         <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M156" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N156" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
@@ -17775,7 +17799,7 @@
       </c>
       <c r="AF156" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17813,16 +17837,16 @@
         <v>1</v>
       </c>
       <c r="L157" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M157" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="N157" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -17891,7 +17915,7 @@
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -17929,16 +17953,16 @@
         <v>1</v>
       </c>
       <c r="L158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="N158" t="n">
-        <v>3680</v>
+        <v>145</v>
       </c>
       <c r="O158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
@@ -18007,7 +18031,7 @@
       </c>
       <c r="AF158" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18045,16 +18069,16 @@
         <v>32</v>
       </c>
       <c r="L159" t="n">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="M159" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N159" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O159" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
@@ -18123,7 +18147,7 @@
       </c>
       <c r="AF159" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18161,16 +18185,16 @@
         <v>2</v>
       </c>
       <c r="L160" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="M160" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N160" t="n">
-        <v>7341</v>
+        <v>289</v>
       </c>
       <c r="O160" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
@@ -18239,7 +18263,7 @@
       </c>
       <c r="AF160" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18277,16 +18301,16 @@
         <v>100</v>
       </c>
       <c r="L161" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="M161" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N161" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="O161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
@@ -18355,7 +18379,7 @@
       </c>
       <c r="AF161" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18393,13 +18417,13 @@
         <v>100</v>
       </c>
       <c r="L162" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M162" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N162" t="n">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="O162" t="n">
         <v>0</v>
@@ -18471,7 +18495,7 @@
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18509,16 +18533,16 @@
         <v>2</v>
       </c>
       <c r="L163" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M163" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N163" t="n">
-        <v>3660</v>
+        <v>144</v>
       </c>
       <c r="O163" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr">
@@ -18583,7 +18607,7 @@
       </c>
       <c r="AF163" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18621,16 +18645,16 @@
         <v>100</v>
       </c>
       <c r="L164" t="n">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="M164" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="N164" t="n">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="O164" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
@@ -18699,7 +18723,7 @@
       </c>
       <c r="AF164" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18737,16 +18761,16 @@
         <v>8</v>
       </c>
       <c r="L165" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="M165" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O165" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr">
@@ -18811,7 +18835,7 @@
       </c>
       <c r="AF165" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18849,16 +18873,16 @@
         <v>4</v>
       </c>
       <c r="L166" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M166" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N166" t="n">
-        <v>965</v>
+        <v>38</v>
       </c>
       <c r="O166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr">
@@ -18923,7 +18947,7 @@
       </c>
       <c r="AF166" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -18961,16 +18985,16 @@
         <v>4</v>
       </c>
       <c r="L167" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
         <v>38</v>
       </c>
-      <c r="N167" t="n">
-        <v>965</v>
-      </c>
       <c r="O167" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr">
@@ -19035,7 +19059,7 @@
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -19073,16 +19097,16 @@
         <v>4</v>
       </c>
       <c r="L168" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O168" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr">
@@ -19147,7 +19171,7 @@
       </c>
       <c r="AF168" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -19185,16 +19209,16 @@
         <v>4</v>
       </c>
       <c r="L169" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr">
@@ -19259,7 +19283,7 @@
       </c>
       <c r="AF169" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -19297,16 +19321,16 @@
         <v>4</v>
       </c>
       <c r="L170" t="n">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="M170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O170" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr">
@@ -19371,7 +19395,7 @@
       </c>
       <c r="AF170" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -19409,16 +19433,16 @@
         <v>4</v>
       </c>
       <c r="L171" t="n">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="M171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>7320</v>
+        <v>288</v>
       </c>
       <c r="O171" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr">
@@ -19483,7 +19507,7 @@
       </c>
       <c r="AF171" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
     </row>
@@ -19494,4 +19518,189 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SOrderNbr</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Opt_Bund</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Actual_Bund</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bundle_Error</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Opt_lbs</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Actual_lbs</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>lbs_Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1014265</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="n"/>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v/>
+      </c>
+      <c r="E2" t="n">
+        <v>984</v>
+      </c>
+      <c r="F2" s="10" t="n"/>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1015008</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="n"/>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v/>
+      </c>
+      <c r="E3" t="n">
+        <v>1586</v>
+      </c>
+      <c r="F3" s="10" t="n"/>
+      <c r="G3">
+        <f>E3-F3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1015210</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="n"/>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="n"/>
+      <c r="G4">
+        <f>E4-F4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1015249</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v>938</v>
+      </c>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5">
+        <f>E5-F5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1015352</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v>6258</v>
+      </c>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6">
+        <f>E6-F6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1015363</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7">
+        <f>B7-C7</f>
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v>4077</v>
+      </c>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7">
+        <f>E7-F7</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>